--- a/ETL/doc/table_list.xlsx
+++ b/ETL/doc/table_list.xlsx
@@ -250,10 +250,7 @@
     <t xml:space="preserve"> limit 0;</t>
   </si>
   <si>
-    <t>t_decision_rule_log_20170409</t>
-  </si>
-  <si>
-    <t>t_decision_rule_log_20170418</t>
+    <t>drop table bi_test.</t>
   </si>
   <si>
     <t>CREATE TABLE `t_apply_admittance` (
@@ -491,6 +488,9 @@
 ) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='规则定义表'</t>
   </si>
   <si>
+    <t>t_decision_rule_log_20170409</t>
+  </si>
+  <si>
     <t>CREATE TABLE `t_decision_rule_log_20170409` (
   `ID` varchar(32) CHARACTER SET utf8mb4 NOT NULL COMMENT '主键',
   `create_time` datetime NOT NULL DEFAULT CURRENT_TIMESTAMP COMMENT '数据创建时间',
@@ -870,8 +870,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -897,31 +897,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -936,24 +953,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -965,7 +981,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -979,45 +1027,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -1025,17 +1034,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1068,6 +1068,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1080,19 +1122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,19 +1146,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,13 +1212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,73 +1230,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,7 +1242,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,11 +1328,80 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1356,85 +1425,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1443,133 +1443,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3799,10 +3799,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4511,62 +4511,388 @@
         <v>create table bi_test.t_user_zhima as select * from bi_sdxd.t_user_zhima limit 0;</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
+    <row r="28" spans="5:8">
+      <c r="E28" t="s">
         <v>76</v>
       </c>
-      <c r="B25">
-        <v>986516</v>
-      </c>
-      <c r="E25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>t_decision_rule_log_20170409</v>
-      </c>
-      <c r="G25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="1"/>
-        <v>t_decision_rule_log_20170409</v>
-      </c>
-      <c r="I25" t="s">
-        <v>75</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="2"/>
-        <v>create table bi_test.t_decision_rule_log_20170409 as select * from bi_sdxd.t_decision_rule_log_20170409 limit 0;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26">
-        <v>1784329</v>
-      </c>
-      <c r="E26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>t_decision_rule_log_20170418</v>
-      </c>
-      <c r="G26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="1"/>
-        <v>t_decision_rule_log_20170418</v>
-      </c>
-      <c r="I26" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="2"/>
-        <v>create table bi_test.t_decision_rule_log_20170418 as select * from bi_sdxd.t_decision_rule_log_20170418 limit 0;</v>
+      <c r="F28" t="str">
+        <f>F1</f>
+        <v>t_apply_admittance</v>
+      </c>
+      <c r="G28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" t="str">
+        <f>CONCATENATE(E28,F28,G28)</f>
+        <v>drop table bi_test.t_apply_admittance;</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8">
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" ref="F29:F59" si="3">F2</f>
+        <v>t_apply_money</v>
+      </c>
+      <c r="G29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" ref="H29:H52" si="4">CONCATENATE(E29,F29,G29)</f>
+        <v>drop table bi_test.t_apply_money;</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8">
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="3"/>
+        <v>t_apply_rollover</v>
+      </c>
+      <c r="G30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="4"/>
+        <v>drop table bi_test.t_apply_rollover;</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8">
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="3"/>
+        <v>t_approve_application</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="4"/>
+        <v>drop table bi_test.t_approve_application;</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8">
+      <c r="E32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="3"/>
+        <v>t_approve_application_reject</v>
+      </c>
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="4"/>
+        <v>drop table bi_test.t_approve_application_reject;</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8">
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="3"/>
+        <v>t_credit_line</v>
+      </c>
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="4"/>
+        <v>drop table bi_test.t_credit_line;</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8">
+      <c r="E34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="3"/>
+        <v>t_credit_line_history</v>
+      </c>
+      <c r="G34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="4"/>
+        <v>drop table bi_test.t_credit_line_history;</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8">
+      <c r="E35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="3"/>
+        <v>t_decision_application</v>
+      </c>
+      <c r="G35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="4"/>
+        <v>drop table bi_test.t_decision_application;</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8">
+      <c r="E36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="3"/>
+        <v>t_decision_rule</v>
+      </c>
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="4"/>
+        <v>drop table bi_test.t_decision_rule;</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8">
+      <c r="E37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="3"/>
+        <v>t_loan</v>
+      </c>
+      <c r="G37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="4"/>
+        <v>drop table bi_test.t_loan;</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8">
+      <c r="E38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="3"/>
+        <v>t_repayment_plan</v>
+      </c>
+      <c r="G38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="4"/>
+        <v>drop table bi_test.t_repayment_plan;</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8">
+      <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="3"/>
+        <v>t_user</v>
+      </c>
+      <c r="G39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="4"/>
+        <v>drop table bi_test.t_user;</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8">
+      <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="3"/>
+        <v>t_user_bank_card</v>
+      </c>
+      <c r="G40" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="4"/>
+        <v>drop table bi_test.t_user_bank_card;</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8">
+      <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="3"/>
+        <v>t_user_device_active</v>
+      </c>
+      <c r="G41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="4"/>
+        <v>drop table bi_test.t_user_device_active;</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8">
+      <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="3"/>
+        <v>t_user_login</v>
+      </c>
+      <c r="G42" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="4"/>
+        <v>drop table bi_test.t_user_login;</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8">
+      <c r="E43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="3"/>
+        <v>t_user_profile_base</v>
+      </c>
+      <c r="G43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="4"/>
+        <v>drop table bi_test.t_user_profile_base;</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8">
+      <c r="E44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="3"/>
+        <v>t_user_profile_contact</v>
+      </c>
+      <c r="G44" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="4"/>
+        <v>drop table bi_test.t_user_profile_contact;</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8">
+      <c r="E45" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="3"/>
+        <v>t_user_profile_face_recognition</v>
+      </c>
+      <c r="G45" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="4"/>
+        <v>drop table bi_test.t_user_profile_face_recognition;</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8">
+      <c r="E46" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="3"/>
+        <v>t_user_profile_home</v>
+      </c>
+      <c r="G46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="4"/>
+        <v>drop table bi_test.t_user_profile_home;</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8">
+      <c r="E47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="3"/>
+        <v>t_user_profile_identity</v>
+      </c>
+      <c r="G47" t="s">
+        <v>71</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="4"/>
+        <v>drop table bi_test.t_user_profile_identity;</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8">
+      <c r="E48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="3"/>
+        <v>t_user_profile_job</v>
+      </c>
+      <c r="G48" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="4"/>
+        <v>drop table bi_test.t_user_profile_job;</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8">
+      <c r="E49" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="3"/>
+        <v>t_user_profile_phone_identity</v>
+      </c>
+      <c r="G49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="4"/>
+        <v>drop table bi_test.t_user_profile_phone_identity;</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8">
+      <c r="E50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="3"/>
+        <v>t_user_reginfo</v>
+      </c>
+      <c r="G50" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="4"/>
+        <v>drop table bi_test.t_user_reginfo;</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8">
+      <c r="E51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="3"/>
+        <v>t_user_zhima</v>
+      </c>
+      <c r="G51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="4"/>
+        <v>drop table bi_test.t_user_zhima;</v>
       </c>
     </row>
   </sheetData>
@@ -4595,10 +4921,10 @@
         <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
         <v>78</v>
-      </c>
-      <c r="C1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" ht="62" customHeight="1" spans="1:3">
@@ -4606,10 +4932,10 @@
         <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" ht="72" customHeight="1" spans="1:3">
@@ -4617,10 +4943,10 @@
         <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" ht="96" customHeight="1" spans="1:3">
@@ -4628,10 +4954,10 @@
         <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:3">
@@ -4639,10 +4965,10 @@
         <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" ht="84" customHeight="1" spans="1:3">
@@ -4650,10 +4976,10 @@
         <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" ht="82" customHeight="1" spans="1:3">
@@ -4661,10 +4987,10 @@
         <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" ht="80" customHeight="1" spans="1:3">
@@ -4672,10 +4998,10 @@
         <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" ht="55" customHeight="1" spans="1:3">
@@ -4683,21 +5009,21 @@
         <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" ht="54" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" ht="36" customHeight="1" spans="1:3">
@@ -4708,7 +5034,7 @@
         <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" ht="47" customHeight="1" spans="1:3">
@@ -4719,7 +5045,7 @@
         <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1" spans="1:3">
@@ -4730,7 +5056,7 @@
         <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" ht="96" customHeight="1" spans="1:3">
@@ -4741,7 +5067,7 @@
         <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" ht="59" customHeight="1" spans="1:3">
@@ -4752,7 +5078,7 @@
         <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" ht="62" customHeight="1" spans="1:3">
@@ -4763,7 +5089,7 @@
         <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" ht="54" customHeight="1" spans="1:3">
@@ -4774,7 +5100,7 @@
         <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" ht="72" customHeight="1" spans="1:3">
@@ -4785,7 +5111,7 @@
         <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" ht="58" customHeight="1" spans="1:3">
@@ -4796,7 +5122,7 @@
         <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" ht="85" customHeight="1" spans="1:3">
@@ -4807,7 +5133,7 @@
         <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" ht="56" customHeight="1" spans="1:3">
@@ -4818,7 +5144,7 @@
         <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" ht="45" customHeight="1" spans="1:3">
@@ -4829,7 +5155,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" ht="47" customHeight="1" spans="1:3">
@@ -4840,7 +5166,7 @@
         <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" ht="51" customHeight="1" spans="1:3">
@@ -4851,7 +5177,7 @@
         <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:3">
@@ -4862,7 +5188,7 @@
         <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
